--- a/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/84/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,93 +43,96 @@
     <t>evil</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>wrong</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>wrong</t>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>sick</t>
   </si>
   <si>
     <t>weird</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>crazy</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -139,37 +142,58 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>brilliant</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>netflix</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
@@ -536,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -658,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,16 +700,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9666666666666667</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.82</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C7">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>0.8</v>
+      </c>
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8">
-        <v>0.7</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
       <c r="M8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9090909090909091</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>0.6666666666666666</v>
@@ -955,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -973,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.5666666666666667</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1005,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8421052631578947</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1023,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.5517241379310345</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.5066666666666667</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -1147,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14">
-        <v>0.05373406193078324</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="L14">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1039</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>0.01111111111111111</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>534</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1273,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K16">
-        <v>0.009036144578313253</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>658</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.575</v>
+        <v>0.65</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1323,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17">
-        <v>0.006336405529953917</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1725</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1374,6 +1398,30 @@
       </c>
       <c r="H18">
         <v>6</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1381,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.55</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1399,7 +1447,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>0.09230769230769231</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1407,13 +1479,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5217391304347826</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1425,7 +1497,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>0.06375227686703097</v>
+      </c>
+      <c r="L20">
+        <v>70</v>
+      </c>
+      <c r="M20">
+        <v>70</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1028</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1433,13 +1529,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1451,7 +1547,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K21">
+        <v>0.02120141342756184</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1459,25 +1579,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22">
+        <v>0.01298701298701299</v>
+      </c>
+      <c r="L22">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>8</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>8</v>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1485,13 +1629,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4855072463768116</v>
+        <v>0.45</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1503,7 +1647,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>0.01054216867469879</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1511,13 +1679,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4117647058823529</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1529,7 +1697,31 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>0.00576036866359447</v>
+      </c>
+      <c r="L24">
         <v>10</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1726</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1537,13 +1729,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4042553191489361</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1555,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1589,13 +1781,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.375</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1607,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1615,13 +1807,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3714285714285714</v>
+        <v>0.375</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1633,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1641,13 +1833,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.25</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1659,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1667,13 +1859,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1685,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1693,13 +1885,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2307692307692308</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1711,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1719,13 +1911,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2307692307692308</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1737,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1745,13 +1937,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1025641025641026</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1763,7 +1955,33 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>70</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>0.08974358974358974</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
